--- a/publipostage/04q33ey84/liste_essais_cliniques_identifies_04q33ey84.xlsx
+++ b/publipostage/04q33ey84/liste_essais_cliniques_identifies_04q33ey84.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -525,6 +530,11 @@
       </c>
       <c r="J2" t="b">
         <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
   </sheetData>
